--- a/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
+++ b/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83718DF8-ADCE-4A9A-B574-F16C4991EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F77B12-7858-47C0-8C33-643DAA154DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>钢轨焊缝探伤记录表</t>
   </si>
@@ -388,10 +388,6 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>${线名}线${行别}行${K范围}轨号${轨号范围}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -650,6 +646,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -691,9 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,7 +974,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1012,24 +1008,22 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1046,7 +1040,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1051,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1062,7 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1073,7 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1082,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1091,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1106,7 +1100,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1123,56 +1117,56 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1182,19 +1176,19 @@
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">

--- a/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
+++ b/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F77B12-7858-47C0-8C33-643DAA154DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83718DF8-ADCE-4A9A-B574-F16C4991EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>钢轨焊缝探伤记录表</t>
   </si>
@@ -388,6 +388,10 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>${线名}线${行别}行${K范围}轨号${轨号范围}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -646,50 +650,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,7 +978,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,22 +1012,24 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1040,7 +1046,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1057,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1068,7 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1079,7 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1082,7 +1088,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1097,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1106,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1117,56 +1123,56 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1176,19 +1182,19 @@
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">

--- a/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
+++ b/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83718DF8-ADCE-4A9A-B574-F16C4991EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C071BBF8-3208-4C8C-AFEB-766EB5A59CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>${线名}线${行别}行${K范围}轨号${轨号范围}</t>
+    <t>${线名}线${行别}${K范围}轨号${轨号范围}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -650,6 +650,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -691,9 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,7 +978,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1012,24 +1012,24 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1123,56 +1123,56 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1182,19 +1182,19 @@
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">

--- a/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
+++ b/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C071BBF8-3208-4C8C-AFEB-766EB5A59CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DC33D0-71EE-4FF7-8984-EA139722E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8385" yWindow="330" windowWidth="15270" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>钢轨焊缝探伤记录表</t>
   </si>
@@ -388,10 +388,6 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>${线名}线${行别}${K范围}轨号${轨号范围}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +974,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1012,9 +1008,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>

--- a/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
+++ b/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DC33D0-71EE-4FF7-8984-EA139722E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D818CDC6-3099-4680-9CE5-51BBB60DCF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="330" windowWidth="15270" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,10 +233,6 @@
     </r>
   </si>
   <si>
-    <t>PXUT-390</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>${</t>
     </r>
@@ -288,6 +284,31 @@
   </si>
   <si>
     <r>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仪器型号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>分部：</t>
     </r>
     <r>
@@ -367,7 +388,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>${PXUT-390</t>
+      <t>${</t>
     </r>
     <r>
       <rPr>
@@ -377,7 +398,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>日期</t>
+      <t>钢轨日期</t>
     </r>
     <r>
       <rPr>
@@ -974,7 +995,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1056,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1067,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>

--- a/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
+++ b/excel_templates/AScan/T_报表生成_RailWeldSpecial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D818CDC6-3099-4680-9CE5-51BBB60DCF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D5273-3FE2-4537-B162-7F8E0BDE813C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>钢轨焊缝探伤记录表</t>
   </si>
@@ -409,6 +409,10 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$&lt;"name":"AScan", "width": 481, "height": 296&gt; </t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -693,15 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -994,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1197,19 +1192,21 @@
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
